--- a/联调测试记录.xlsx
+++ b/联调测试记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiao.hexin.alex\OneDrive - Vertiv Co\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_1_github\6_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E678D8-BAE9-4460-853E-19F41D366E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB2833A-05A5-41A1-8006-1AE38994892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TM4C 联调记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,27 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                        temp[0] = 0x21;
-                        temp[1] = 0x03;
-                        temp[2] = 0x02;
-                        temp[3] = 0x00;
-                        temp[4] = 0xCC;
-                        temp[5] = 0x39;
-                        temp[6] = 0xD6;
-                        BMS_UART_Write((char *)&amp;temp, 8);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                        temp[0] = 0x21;
-                        temp[1] = 0x03;
-                        temp[2] = 0x02;
-                        temp[3] = 0x00;
-                        temp[4] = 0xCC;
-                        temp[5] = 0x39;
-                        temp[6] = 0xD6;
-                        BMS_UART_Write((char *)&amp;temp, 9);</t>
-  </si>
-  <si>
     <t>HMI发送不加延时，收不到回复的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +84,14 @@
   </si>
   <si>
     <t>TM4C 增加进位指令接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊处理由APP发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM4C 联调问题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,17 +131,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,154 +453,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" customWidth="1"/>
-    <col min="4" max="4" width="49.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="38.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/联调测试记录.xlsx
+++ b/联调测试记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_1_github\6_Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiao.hexin.alex\OneDrive - Vertiv Co\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB2833A-05A5-41A1-8006-1AE38994892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E678D8-BAE9-4460-853E-19F41D366E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM4C 联调记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +71,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">                        temp[0] = 0x21;
+                        temp[1] = 0x03;
+                        temp[2] = 0x02;
+                        temp[3] = 0x00;
+                        temp[4] = 0xCC;
+                        temp[5] = 0x39;
+                        temp[6] = 0xD6;
+                        BMS_UART_Write((char *)&amp;temp, 8);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                        temp[0] = 0x21;
+                        temp[1] = 0x03;
+                        temp[2] = 0x02;
+                        temp[3] = 0x00;
+                        temp[4] = 0xCC;
+                        temp[5] = 0x39;
+                        temp[6] = 0xD6;
+                        BMS_UART_Write((char *)&amp;temp, 9);</t>
+  </si>
+  <si>
     <t>HMI发送不加延时，收不到回复的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,14 +113,6 @@
   </si>
   <si>
     <t>TM4C 增加进位指令接受</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊处理由APP发送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TM4C 联调问题记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -131,47 +152,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,239 +444,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="38.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" customWidth="1"/>
+    <col min="4" max="4" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
